--- a/ActiTimeTestFramework/data/ActiTimeTestData.xlsx
+++ b/ActiTimeTestFramework/data/ActiTimeTestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository23\automationqsp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository24\ActiTimeTestFramework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A48882-FFDD-4AA6-A684-7F4E6FA113C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0727C2-AF3A-4C5C-A836-9B0A157B0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -70,12 +70,16 @@
   </si>
   <si>
     <t>sgmanager</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -411,11 +415,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,12 +427,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -439,96 +446,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B13DD11-7ECD-40E5-A736-4611063A8606}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ActiTimeTestFramework/data/ActiTimeTestData.xlsx
+++ b/ActiTimeTestFramework/data/ActiTimeTestData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository24\ActiTimeTestFramework\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0727C2-AF3A-4C5C-A836-9B0A157B0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7850E301-4D69-4AFA-854B-77DC29480CBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcredentials" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O4"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -79,7 +75,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,14 +404,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="17.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -448,14 +443,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B13DD11-7ECD-40E5-A736-4611063A8606}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
